--- a/data/child.xlsx
+++ b/data/child.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niidome/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niidome/Documents/workspace/python-graph/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862032F5-C708-994C-8825-0D38B4B578E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E681A2-CEB9-924D-8F84-6698B7E5C1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="740" windowWidth="28300" windowHeight="17260" xr2:uid="{F833FF82-AD80-1441-8E47-FC6E1F7C63CA}"/>
   </bookViews>
@@ -38,22 +38,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>0人</t>
+  </si>
+  <si>
+    <t>1人</t>
+  </si>
+  <si>
+    <t>2人</t>
+  </si>
+  <si>
+    <t>3人</t>
+  </si>
+  <si>
+    <t>4人以上</t>
+  </si>
+  <si>
     <t>％</t>
-  </si>
-  <si>
-    <t>0人</t>
-  </si>
-  <si>
-    <t>1人</t>
-  </si>
-  <si>
-    <t>2人</t>
-  </si>
-  <si>
-    <t>3人</t>
-  </si>
-  <si>
-    <t>4人以上</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -429,19 +430,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EE7B34-C92E-D24C-AEC1-95C20E3F7ACD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>57.5</v>
@@ -449,7 +452,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.8</v>
@@ -457,7 +460,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>19.8</v>
@@ -465,7 +468,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>6.5</v>
@@ -473,7 +476,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>1.3</v>
